--- a/_resource/excel/W-玩家-属性重置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/W-玩家-属性重置-(框架定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="reset" sheetId="1" r:id="rId1"/>
@@ -20,9 +25,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>lori</author>
+    <author>刘小兵(橘右京)</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="D2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>刘小兵(橘右京):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+程序内部需要回调逻辑, 填写一个名字, 然后在代码中注册该名字, 与后面属性重置是互斥的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>#reset</t>
   </si>
@@ -150,26 +182,50 @@
     <t>每周限购商品</t>
   </si>
   <si>
-    <t>weeklystore</t>
-  </si>
-  <si>
-    <t>每日限购商品</t>
-  </si>
-  <si>
-    <t>dailystore</t>
+    <t>调用的函数名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionName(string)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskchain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务链重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日购买商品重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日商城刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周商城刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -189,157 +245,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,8 +255,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,204 +312,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -598,255 +346,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,62 +395,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -966,12 +433,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1300,46 +770,46 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
-    <col min="9" max="10" width="17.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="22.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="7" customWidth="1"/>
+    <col min="10" max="11" width="17.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1350,22 +820,25 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1390,8 +863,11 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:13">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1401,28 +877,31 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:8">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1432,21 +911,21 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:8">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
@@ -1454,21 +933,21 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:8">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -1476,133 +955,147 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" s="6" customFormat="1" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" s="6" customFormat="1" spans="1:2">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:2">
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:2">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:2">
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:2">
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:2">
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:2">
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:2">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:2">
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:2">
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:2">
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:2">
+    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:2">
+    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
